--- a/testdata/Tutor addevent.xlsx
+++ b/testdata/Tutor addevent.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoges\PycharmProjects\ilrnu\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44259C68-9090-400B-A885-A9C62CE0E52C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DFC783E-B14B-48E3-A0E2-4C051E068CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Add event" sheetId="1" r:id="rId1"/>
+    <sheet name="Addevent" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
   <si>
     <t>Online</t>
   </si>
@@ -96,6 +96,51 @@
   </si>
   <si>
     <t>Actual_result</t>
+  </si>
+  <si>
+    <t>Picture</t>
+  </si>
+  <si>
+    <t>"P:\iLRNU application\Testdata\Maths.jpg"</t>
+  </si>
+  <si>
+    <t>Expected</t>
+  </si>
+  <si>
+    <t>Eventmode</t>
+  </si>
+  <si>
+    <t>Eventcategory</t>
+  </si>
+  <si>
+    <t>Eventname</t>
+  </si>
+  <si>
+    <t>Eventdescription</t>
+  </si>
+  <si>
+    <t>Eventaddress</t>
+  </si>
+  <si>
+    <t>Eventdate</t>
+  </si>
+  <si>
+    <t>Estarttimehour</t>
+  </si>
+  <si>
+    <t>Estarttimemin</t>
+  </si>
+  <si>
+    <t>Eendtimehour</t>
+  </si>
+  <si>
+    <t>Eendtimemin</t>
+  </si>
+  <si>
+    <t>AMPM</t>
+  </si>
+  <si>
+    <t>Actualresult</t>
   </si>
 </sst>
 </file>
@@ -103,7 +148,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -152,7 +197,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -186,17 +231,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -207,11 +262,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -551,138 +621,157 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="48.5546875" customWidth="1"/>
-    <col min="5" max="5" width="40.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.6640625" customWidth="1"/>
-    <col min="7" max="7" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16" customWidth="1"/>
-    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="63.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.21875" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.88671875" style="7" customWidth="1"/>
+    <col min="13" max="14" width="11" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="11" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="10">
+        <v>44218</v>
+      </c>
+      <c r="G2" s="9">
+        <v>6</v>
+      </c>
+      <c r="H2" s="9">
         <v>15</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="2" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="6">
-        <v>44218</v>
-      </c>
-      <c r="G2" s="2">
-        <v>6</v>
-      </c>
-      <c r="H2" s="2">
-        <v>15</v>
-      </c>
-      <c r="I2" s="2">
+      <c r="I2" s="9">
         <v>8</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="9">
         <v>30</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="N2" s="9"/>
+    </row>
+    <row r="3" spans="1:14" s="11" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="10">
         <v>44219</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="9">
         <v>8</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="9">
         <v>30</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="9">
         <v>9</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="9">
         <v>30</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="N3" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -693,7 +782,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6739A996-6C62-4EF5-8440-60452EA46365}">
   <dimension ref="D4:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
@@ -751,7 +840,7 @@
       <c r="D7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>2</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -773,7 +862,7 @@
       <c r="D8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>3</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -795,7 +884,7 @@
       <c r="D9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>4</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -817,7 +906,7 @@
       <c r="D10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>5</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -839,7 +928,7 @@
       <c r="D11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>6</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -861,7 +950,7 @@
       <c r="D12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>7</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -883,7 +972,7 @@
       <c r="D13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <v>8</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -905,7 +994,7 @@
       <c r="D14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="4">
         <v>9</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -927,7 +1016,7 @@
       <c r="D15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="4">
         <v>10</v>
       </c>
       <c r="F15" s="1" t="s">
@@ -949,7 +1038,7 @@
       <c r="D16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="4">
         <v>11</v>
       </c>
       <c r="F16" s="1" t="s">
@@ -990,10 +1079,10 @@
       <c r="Q17" s="1"/>
     </row>
     <row r="18" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="5" t="s">
         <v>24</v>
       </c>
     </row>

--- a/testdata/Tutor addevent.xlsx
+++ b/testdata/Tutor addevent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoges\PycharmProjects\ilrnu\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DFC783E-B14B-48E3-A0E2-4C051E068CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A32C74-85A4-4618-8CB1-5D0602F73BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -147,9 +147,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
-  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -248,7 +245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -277,10 +274,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -623,8 +623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -689,14 +689,14 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="11" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="10" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="11" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="9" t="s">
@@ -705,7 +705,7 @@
       <c r="E2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="12">
         <v>44218</v>
       </c>
       <c r="G2" s="9">
@@ -715,10 +715,10 @@
         <v>15</v>
       </c>
       <c r="I2" s="9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J2" s="9">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>9</v>
@@ -731,7 +731,7 @@
       </c>
       <c r="N2" s="9"/>
     </row>
-    <row r="3" spans="1:14" s="11" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" s="10" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
@@ -747,7 +747,7 @@
       <c r="E3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="12">
         <v>44219</v>
       </c>
       <c r="G3" s="9">
@@ -775,6 +775,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/testdata/Tutor addevent.xlsx
+++ b/testdata/Tutor addevent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoges\PycharmProjects\ilrnu\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A32C74-85A4-4618-8CB1-5D0602F73BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E65FD0-F473-4E96-B831-38A84B332AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="41">
   <si>
     <t>Online</t>
   </si>
@@ -29,12 +29,6 @@
     <t>Offline</t>
   </si>
   <si>
-    <t>Music</t>
-  </si>
-  <si>
-    <t>Dance</t>
-  </si>
-  <si>
     <t>Music classes</t>
   </si>
   <si>
@@ -141,13 +135,22 @@
   </si>
   <si>
     <t>Actualresult</t>
+  </si>
+  <si>
+    <t>sports</t>
+  </si>
+  <si>
+    <t>dance</t>
+  </si>
+  <si>
+    <t>./testdata/Maths.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,6 +181,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF6A8759"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -245,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -282,6 +291,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -627,7 +639,7 @@
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.21875" style="7" bestFit="1" customWidth="1"/>
@@ -645,65 +657,65 @@
     <col min="15" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14">
       <c r="A1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="L1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:14" s="10" customFormat="1" ht="72">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>6</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>8</v>
       </c>
       <c r="F2" s="12">
         <v>44218</v>
@@ -721,31 +733,31 @@
         <v>15</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>26</v>
+        <v>7</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>40</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N2" s="9"/>
     </row>
-    <row r="3" spans="1:14" s="10" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" s="10" customFormat="1" ht="43.2">
       <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>7</v>
-      </c>
       <c r="E3" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F3" s="12">
         <v>44219</v>
@@ -763,13 +775,13 @@
         <v>30</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N3" s="9"/>
     </row>
@@ -787,14 +799,14 @@
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.6640625" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="4:17">
       <c r="E4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -807,7 +819,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="4:17">
       <c r="D5" t="s">
         <v>0</v>
       </c>
@@ -815,15 +827,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="4:17">
       <c r="D6" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -837,15 +849,15 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="4:17">
       <c r="D7" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E7" s="3">
         <v>2</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -859,15 +871,15 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="4:17">
       <c r="D8" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E8" s="4">
         <v>3</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -881,15 +893,15 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="4:17">
       <c r="D9" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E9" s="4">
         <v>4</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -903,15 +915,15 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="4:17">
       <c r="D10" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E10" s="2">
         <v>5</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -925,15 +937,15 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="4:17">
       <c r="D11" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E11" s="4">
         <v>6</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -947,15 +959,15 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="4:17">
       <c r="D12" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E12" s="4">
         <v>7</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -969,15 +981,15 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="4:17">
       <c r="D13" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E13" s="4">
         <v>8</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -991,15 +1003,15 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="4:17">
       <c r="D14" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E14" s="4">
         <v>9</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -1013,15 +1025,15 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="4:17">
       <c r="D15" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E15" s="4">
         <v>10</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -1035,15 +1047,15 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="4:17">
       <c r="D16" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E16" s="4">
         <v>11</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -1057,15 +1069,15 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:17">
       <c r="D17" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E17" s="1">
         <v>12</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -1079,12 +1091,12 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:17">
       <c r="D18" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/Tutor addevent.xlsx
+++ b/testdata/Tutor addevent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoges\PycharmProjects\ilrnu\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E65FD0-F473-4E96-B831-38A84B332AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10EE3B6B-8650-49B7-9F36-ADE1B53442B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
   <si>
     <t>Online</t>
   </si>
@@ -95,9 +95,6 @@
     <t>Picture</t>
   </si>
   <si>
-    <t>"P:\iLRNU application\Testdata\Maths.jpg"</t>
-  </si>
-  <si>
     <t>Expected</t>
   </si>
   <si>
@@ -143,14 +140,14 @@
     <t>dance</t>
   </si>
   <si>
-    <t>./testdata/Maths.jpg</t>
+    <t>"P://iLRNU application//Testdata//Maths.jpg"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,12 +178,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.8000000000000007"/>
-      <color rgb="FF6A8759"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -254,7 +245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -291,9 +282,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -636,10 +624,10 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.21875" style="7" bestFit="1" customWidth="1"/>
@@ -657,56 +645,56 @@
     <col min="15" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>35</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>36</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>23</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" ht="72">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="10" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>2</v>
@@ -735,20 +723,20 @@
       <c r="K2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="13" t="s">
-        <v>40</v>
+      <c r="L2" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>8</v>
       </c>
       <c r="N2" s="9"/>
     </row>
-    <row r="3" spans="1:14" s="10" customFormat="1" ht="43.2">
+    <row r="3" spans="1:14" s="10" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>3</v>
@@ -778,7 +766,7 @@
         <v>7</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="M3" s="9" t="s">
         <v>8</v>
@@ -799,14 +787,14 @@
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.6640625" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:17">
+    <row r="4" spans="4:17" x14ac:dyDescent="0.3">
       <c r="E4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -819,7 +807,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="4:17">
+    <row r="5" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>0</v>
       </c>
@@ -827,7 +815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="4:17">
+    <row r="6" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
@@ -849,7 +837,7 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="4:17">
+    <row r="7" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D7" s="1" t="s">
         <v>11</v>
       </c>
@@ -871,7 +859,7 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="4:17">
+    <row r="8" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D8" s="1" t="s">
         <v>12</v>
       </c>
@@ -893,7 +881,7 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="4:17">
+    <row r="9" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D9" s="1" t="s">
         <v>13</v>
       </c>
@@ -915,7 +903,7 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="4:17">
+    <row r="10" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D10" s="1" t="s">
         <v>14</v>
       </c>
@@ -937,7 +925,7 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="4:17">
+    <row r="11" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D11" s="1" t="s">
         <v>15</v>
       </c>
@@ -959,7 +947,7 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="4:17">
+    <row r="12" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D12" s="1" t="s">
         <v>16</v>
       </c>
@@ -981,7 +969,7 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="4:17">
+    <row r="13" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D13" s="1" t="s">
         <v>17</v>
       </c>
@@ -1003,7 +991,7 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="4:17">
+    <row r="14" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D14" s="1" t="s">
         <v>18</v>
       </c>
@@ -1025,7 +1013,7 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="4:17">
+    <row r="15" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D15" s="1" t="s">
         <v>19</v>
       </c>
@@ -1047,7 +1035,7 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="4:17">
+    <row r="16" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D16" s="1" t="s">
         <v>20</v>
       </c>
@@ -1069,7 +1057,7 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="4:17">
+    <row r="17" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D17" s="1" t="s">
         <v>21</v>
       </c>
@@ -1091,7 +1079,7 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="4:17">
+    <row r="18" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D18" s="5" t="s">
         <v>22</v>
       </c>
